--- a/ModelAutoBuild/ModelAutoBuild_Example.xlsx
+++ b/ModelAutoBuild/ModelAutoBuild_Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/mikova_microsoft_com/Documents/Power BI CAT/ModelAutoBuild/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{DA41B171-F0B5-40FA-9DD9-1E96E1A33ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B2BA06D8-466E-425A-85F1-345271799FC4}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{DA41B171-F0B5-40FA-9DD9-1E96E1A33ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{61BBFFA2-2BF6-49C4-9C92-1369F8448A5D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{BEC676D7-2196-4582-B754-27C40BA62468}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{BEC676D7-2196-4582-B754-27C40BA62468}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSources" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="Relationships" sheetId="2" r:id="rId3"/>
     <sheet name="MeasuresColumns" sheetId="1" r:id="rId4"/>
     <sheet name="Model" sheetId="5" r:id="rId5"/>
-    <sheet name="Lists" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Roles" sheetId="7" r:id="rId6"/>
+    <sheet name="RLS" sheetId="8" r:id="rId7"/>
+    <sheet name="Lists" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="CFB">Lists!$A$2:$A$3</definedName>
@@ -428,8 +430,112 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Michael Kovalsky</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7A48F38A-761C-4E4A-A32B-CB3D4411CBAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>List all the roles within the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{4A42D7FF-1902-4097-9042-7969910CB312}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>List the members of each role. Typically in DOMAIN\alias format.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{21EE69F4-1E33-4A3B-AFEF-B9ECFABC4CA5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Indicates what type of access the role will have: Admin or Read.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Michael Kovalsky</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{754FFA39-74B6-4E93-9C3A-993C7668F9E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter the role name as done in the Roles tab.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C4F6B55F-9408-4763-A1CA-E5FEB7819919}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter the table where the Row Level Security applies.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B0517D0C-0658-49AB-BFEB-4A12B3B6E610}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter the DAX filter expression that will be used for Row Level Security.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="166">
   <si>
     <t>ObjectType</t>
   </si>
@@ -903,6 +1009,30 @@
   </si>
   <si>
     <t>VAR x =    CALCULATE ( [Cumulative Tests], DATEADD ( 'Calendar'[Calendar Date], -1, DAY ) )VAR y = [Cumulative Tests]RETURN    IF ( NOT ( x = BLANK () || y = BLANK () ), y - x )</t>
+  </si>
+  <si>
+    <t>RoleName</t>
+  </si>
+  <si>
+    <t>RoleMember</t>
+  </si>
+  <si>
+    <t>ModelPermission</t>
+  </si>
+  <si>
+    <t>FilterExpression</t>
+  </si>
+  <si>
+    <t>Reader</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>DOMAIN\alias1</t>
+  </si>
+  <si>
+    <t>DOMAIN\alias2</t>
   </si>
 </sst>
 </file>
@@ -951,9 +1081,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1363,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE15475-D36B-469A-9D91-7DF5AA505F92}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1686,7 +1817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D5FF5B-42A8-45C4-8D3C-F69DAA6F7686}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2826,6 +2957,104 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5409C346-2AA7-4AB5-B89A-838DE9F65DD2}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD914D6-40DA-442D-A72A-A7EAE8BD0D36}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>"'Geography'[Country]=""United States"""</f>
+        <v>'Geography'[Country]="United States"</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BE63A7-A7D5-49AC-9895-8F1C3551ADEE}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2983,6 +3212,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BCC0D0C0DFF8C6449DE7873A14FBCB83" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fa404479abba3feb074acc2e806565cf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9e548fd3-f7b4-490c-9d07-36be117e6ce5" xmlns:ns4="beaba498-6342-4421-a18c-7bfd16d38d53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25dd324ff6cedc5a2df3109d58df23e8" ns3:_="" ns4:_="">
     <xsd:import namespace="9e548fd3-f7b4-490c-9d07-36be117e6ce5"/>
@@ -3217,7 +3455,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <MediaServiceKeyPoints xmlns="beaba498-6342-4421-a18c-7bfd16d38d53" xsi:nil="true"/>
@@ -3225,16 +3463,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2275932-CD7C-4B19-A948-199D3E0E5FFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F812E1F2-546D-4113-A992-5C4A89A4B9AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3253,7 +3490,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9805D712-353E-429A-8628-FA34CABB75D5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="beaba498-6342-4421-a18c-7bfd16d38d53"/>
@@ -3268,12 +3505,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2275932-CD7C-4B19-A948-199D3E0E5FFC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ModelAutoBuild/ModelAutoBuild_Example.xlsx
+++ b/ModelAutoBuild/ModelAutoBuild_Example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/mikova_microsoft_com/Documents/Power BI CAT/ModelAutoBuild/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/mikova_microsoft_com/Documents/Power BI CAT/ModelAutoBuild/GitHub/v1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{DA41B171-F0B5-40FA-9DD9-1E96E1A33ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{61BBFFA2-2BF6-49C4-9C92-1369F8448A5D}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{F2345AAA-D95C-4D13-9E0D-31EC43AD9DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{61E6CB83-3D97-4CB8-96D9-723E9FC08F92}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{BEC676D7-2196-4582-B754-27C40BA62468}"/>
   </bookViews>
@@ -20,15 +20,26 @@
     <sheet name="Model" sheetId="5" r:id="rId5"/>
     <sheet name="Roles" sheetId="7" r:id="rId6"/>
     <sheet name="RLS" sheetId="8" r:id="rId7"/>
-    <sheet name="Lists" sheetId="6" state="hidden" r:id="rId8"/>
+    <sheet name="Hierarchies" sheetId="10" r:id="rId8"/>
+    <sheet name="Lists" sheetId="6" state="hidden" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="CFB" localSheetId="7">[1]Lists!$A$2:$A$3</definedName>
     <definedName name="CFB">Lists!$A$2:$A$3</definedName>
+    <definedName name="DS" localSheetId="7">[1]Lists!$C$2</definedName>
     <definedName name="DS">Lists!$C$2</definedName>
+    <definedName name="DT" localSheetId="7">[1]Lists!$F$3:$F$7</definedName>
     <definedName name="DT">Lists!$F$3:$F$7</definedName>
+    <definedName name="FS" localSheetId="7">[1]Lists!$B$2:$B$6</definedName>
     <definedName name="FS">Lists!$B$2:$B$5</definedName>
+    <definedName name="OT" localSheetId="7">[1]Lists!$G$2:$G$3</definedName>
     <definedName name="OT">Lists!$G$2:$G$3</definedName>
+    <definedName name="Prov" localSheetId="7">[1]Lists!$E$2:$E$6</definedName>
     <definedName name="Prov">Lists!$E$2:$E$6</definedName>
+    <definedName name="TT" localSheetId="7">[1]Lists!$D$2:$D$6</definedName>
     <definedName name="TT">Lists!$D$2:$D$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -534,8 +545,60 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Michael Kovalsky</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1A33E72F-CC08-4D50-9DB1-73CBE18DD817}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter the name of the hierarchy. The best practice is to name hierarchies with the word hierarchy at the end (i.e. Geography Hierarchy).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{865E2F1D-63AB-4B02-A57A-DF0B0043980A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter the table that the hierarchy is in.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{7433799C-1B23-4850-8B31-CDC1CA65962D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter the column from the table specified that are to be in the hierarchy.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="171">
   <si>
     <t>ObjectType</t>
   </si>
@@ -1033,6 +1096,21 @@
   </si>
   <si>
     <t>DOMAIN\alias2</t>
+  </si>
+  <si>
+    <t>RELATED('Geography'[Country])</t>
+  </si>
+  <si>
+    <t>HierarchyName</t>
+  </si>
+  <si>
+    <t>ColumnName</t>
+  </si>
+  <si>
+    <t>Geography Hierarchy</t>
+  </si>
+  <si>
+    <t>Calendar Hierarchy</t>
   </si>
 </sst>
 </file>
@@ -1193,6 +1271,239 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>271463</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D7F101-96FF-4541-BCCF-FD207EA45FBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7043738" y="419099"/>
+          <a:ext cx="3433763" cy="2424113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Notes:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Make sure to enter each</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> hierarchy's columns in the proper order. The order is from least granular to most granular. In other words, if you wanted a calendar hierarchy you would enter columns akin to the format below. See the ModelAutoBuild_Example.xlsx file for additional examples.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Calendar Year</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Calendar Quarter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Calendar Month</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Calendar Date</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DataSources"/>
+      <sheetName val="Tables"/>
+      <sheetName val="Relationships"/>
+      <sheetName val="MeasuresColumns"/>
+      <sheetName val="Model"/>
+      <sheetName val="Roles"/>
+      <sheetName val="RLS"/>
+      <sheetName val="Hierarchies"/>
+      <sheetName val="Lists"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Single</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Currency</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>Fact</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>SQL</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>Column</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Bi</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Decimal</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Dim</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Databricks</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>DateTime</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>Measure</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Month Year</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>Bridge</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>Decimal</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Percentage</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>Sec</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>Double</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Whole Number</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>Meta</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>Integer</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7" t="str">
+            <v>String</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1495,7 +1806,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1815,13 +2126,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D5FF5B-42A8-45C4-8D3C-F69DAA6F7686}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2897,6 +3208,23 @@
       </c>
       <c r="G55" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2961,7 +3289,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3022,7 +3350,7 @@
   <cols>
     <col min="1" max="1" width="8.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -3055,6 +3383,94 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A0C669-A698-4A1A-AB7C-B0DA0D25542E}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BE63A7-A7D5-49AC-9895-8F1C3551ADEE}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -3212,12 +3628,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="beaba498-6342-4421-a18c-7bfd16d38d53" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3456,17 +3871,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="beaba498-6342-4421-a18c-7bfd16d38d53" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2275932-CD7C-4B19-A948-199D3E0E5FFC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9805D712-353E-429A-8628-FA34CABB75D5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="beaba498-6342-4421-a18c-7bfd16d38d53"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9e548fd3-f7b4-490c-9d07-36be117e6ce5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3491,18 +3916,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9805D712-353E-429A-8628-FA34CABB75D5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2275932-CD7C-4B19-A948-199D3E0E5FFC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="beaba498-6342-4421-a18c-7bfd16d38d53"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9e548fd3-f7b4-490c-9d07-36be117e6ce5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>